--- a/solutions/dell/network/powerswitch-datacenter/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/network/powerswitch-datacenter/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Spine Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Leaf Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1248,7 +1248,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Spine Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Leaf Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Aggregation Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Optics</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Optics</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cabling</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cabling</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1696,216 +1696,36 @@
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>Network Design</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>Spine-leaf architecture design and capacity planning</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G13" s="46" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H13" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="46" t="n">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="44" t="inlineStr">
-        <is>
-          <t>Architecture and IP addressing design</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Installation and Configuration</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>Switch installation OS10 config BGP and VXLAN setup</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>160</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="50" t="n">
-        <v>32000</v>
-      </c>
-      <c r="H14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50" t="n">
-        <v>32000</v>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>Deployment and configuration services</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>Migration Services</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>Cutover planning and execution from legacy network</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>120</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G15" s="46" t="n">
-        <v>21000</v>
-      </c>
-      <c r="H15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="46" t="n">
-        <v>21000</v>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>Migration assistance and validation</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>OS10 administration BGP and automation 5-day workshop</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G16" s="50" t="n">
-        <v>14000</v>
-      </c>
-      <c r="H16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50" t="n">
-        <v>14000</v>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Network team training</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="51" t="inlineStr">
+      <c r="A13" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B17" s="52" t="n"/>
-      <c r="C17" s="52" t="n"/>
-      <c r="D17" s="52" t="n"/>
-      <c r="E17" s="52" t="n"/>
-      <c r="F17" s="52" t="n"/>
-      <c r="G17" s="53">
-        <f>SUM(G3:G16)</f>
-        <v/>
-      </c>
-      <c r="H17" s="53">
-        <f>SUM(H3:H16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="53">
-        <f>SUM(I3:I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="53">
-        <f>SUM(J3:J16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="52" t="n"/>
+      <c r="B13" s="52" t="n"/>
+      <c r="C13" s="52" t="n"/>
+      <c r="D13" s="52" t="n"/>
+      <c r="E13" s="52" t="n"/>
+      <c r="F13" s="52" t="n"/>
+      <c r="G13" s="53">
+        <f>SUM(G3:G12)</f>
+        <v/>
+      </c>
+      <c r="H13" s="53">
+        <f>SUM(H3:H12)</f>
+        <v/>
+      </c>
+      <c r="I13" s="53">
+        <f>SUM(I3:I12)</f>
+        <v/>
+      </c>
+      <c r="J13" s="53">
+        <f>SUM(J3:J12)</f>
+        <v/>
+      </c>
+      <c r="K13" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K17"/>
+  <autoFilter ref="A2:K13"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2018,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2083,7 +1903,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Spine Switches</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2114,7 +1934,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Leaf Switches</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2145,7 +1965,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Optics &amp; Cabling</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2174,40 +1994,40 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Software</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
+      <c r="A6" s="51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Support &amp; Maintenance (3-Year)</t>
+          <t>Cisco Nexus Alternative</t>
         </is>
       </c>
       <c r="B7" s="46">
@@ -2238,7 +2058,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Dell PowerSwitch Savings</t>
         </is>
       </c>
       <c r="B8" s="50">
@@ -2266,101 +2086,8 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B9" s="53">
-        <f>SUM(B3:B8)</f>
-        <v/>
-      </c>
-      <c r="C9" s="53">
-        <f>SUM(C3:C8)</f>
-        <v/>
-      </c>
-      <c r="D9" s="53">
-        <f>SUM(D3:D8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="53">
-        <f>SUM(E3:E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="53">
-        <f>SUM(F3:F8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="53">
-        <f>SUM(G3:G8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="47" t="inlineStr">
-        <is>
-          <t>Cisco Nexus Alternative</t>
-        </is>
-      </c>
-      <c r="B10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C10" s="50">
-        <f>SUMIF(Credits!$A:$A,A10,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D10" s="50">
-        <f>B10+C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G10" s="50">
-        <f>D10+E10+F10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="43" t="inlineStr">
-        <is>
-          <t>Dell PowerSwitch Savings</t>
-        </is>
-      </c>
-      <c r="B11" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A11,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C11" s="46">
-        <f>SUMIF(Credits!$A:$A,A11,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D11" s="46">
-        <f>B11+C11</f>
-        <v/>
-      </c>
-      <c r="E11" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A11,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F11" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A11,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G11" s="46">
-        <f>D11+E11+F11</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:G11"/>
+  <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/dell/network/powerswitch-datacenter/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/network/powerswitch-datacenter/presales/infrastructure-costs.xlsx
@@ -1838,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1903,7 +1903,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -1934,7 +1934,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -1996,96 +1996,78 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Operational Savings</t>
         </is>
       </c>
       <c r="B6" s="53">
-        <f>SUM(B3:B5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
       <c r="C6" s="53">
-        <f>SUM(C3:C5)</f>
+        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
       <c r="D6" s="53">
-        <f>SUM(D3:D5)</f>
+        <f>B6+C6</f>
         <v/>
       </c>
       <c r="E6" s="53">
-        <f>SUM(E3:E5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
       <c r="F6" s="53">
-        <f>SUM(F3:F5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
       <c r="G6" s="53">
-        <f>SUM(G3:G5)</f>
+        <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cisco Nexus Alternative</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
+        <f>SUM(B3:B6)</f>
         <v/>
       </c>
       <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
+        <f>SUM(C3:C6)</f>
         <v/>
       </c>
       <c r="D7" s="46">
-        <f>B7+C7</f>
+        <f>SUM(D3:D6)</f>
         <v/>
       </c>
       <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
+        <f>SUM(E3:E6)</f>
         <v/>
       </c>
       <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
+        <f>SUM(F3:F6)</f>
         <v/>
       </c>
       <c r="G7" s="46">
-        <f>D7+E7+F7</f>
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="47" t="inlineStr">
-        <is>
-          <t>Dell PowerSwitch Savings</t>
-        </is>
-      </c>
-      <c r="B8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C8" s="50">
-        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D8" s="50">
-        <f>B8+C8</f>
-        <v/>
-      </c>
-      <c r="E8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G8" s="50">
-        <f>D8+E8+F8</f>
-        <v/>
-      </c>
-    </row>
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="50" t="n"/>
+      <c r="C8" s="50" t="n"/>
+      <c r="D8" s="50" t="n"/>
+      <c r="E8" s="50" t="n"/>
+      <c r="F8" s="50" t="n"/>
+      <c r="G8" s="50" t="n"/>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
   </sheetData>
   <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
